--- a/Excel/Assignment 4.1.xlsx
+++ b/Excel/Assignment 4.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\Assignment\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A5789-0D7E-4E96-9817-58AEF0C3CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" tabRatio="758" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sort" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,17 @@
     <sheet name="Filter answer quarter 3" sheetId="5" r:id="rId5"/>
     <sheet name="Filter top 5 profit" sheetId="6" r:id="rId6"/>
     <sheet name="Filter segment and country" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Filter answer quarter 3'!$A$4:$E$317</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Filter Answer start with "F"'!$A$3:$E$316</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Filter segment and country'!$B$5:$C$318</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Filter top 5 profit'!$A$5:$E$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$B$3:$C$316</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sort Answer'!$P$5:$T$318</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -121,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +206,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -248,7 +256,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -283,20 +297,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>192842</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467162</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -314,7 +334,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3893820" y="746760"/>
+          <a:off x="5387340" y="883920"/>
           <a:ext cx="2494082" cy="2423160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -623,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5995,11 +6015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:G321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11373,7 +11393,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C9:G321">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:G321">
     <sortCondition ref="C8:C321"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11381,7 +11401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:T318"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -21446,7 +21466,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="P5:T318">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="P5:T318">
     <sortCondition ref="P5:T5" customList="ID,Date,Segment,Country,Profit"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21455,11 +21475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A3:K316"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
@@ -30712,7 +30732,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E316">
+  <autoFilter ref="A3:E316" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter val="F*"/>
@@ -30724,11 +30744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A4:E317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H326" sqref="H326"/>
     </sheetView>
   </sheetViews>
@@ -36076,7 +36096,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E317">
+  <autoFilter ref="A4:E317" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="3">
       <dynamicFilter type="Q3"/>
     </filterColumn>
@@ -36086,7 +36106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A5:E318"/>
   <sheetViews>
@@ -41438,7 +41458,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E318">
+  <autoFilter ref="A5:E318" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="4">
       <top10 val="5" filterVal="256402"/>
     </filterColumn>
@@ -41448,12 +41468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A5:E318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41480,36 +41500,38 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="E6" s="1">
-        <v>108879</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B6,Filter!$E$9:$E$321,$C6)</f>
+        <v>1536405</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>44470</v>
+        <v>44317</v>
       </c>
       <c r="E7" s="1">
-        <v>165656</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B7,Filter!$E$9:$E$321,$C7)</f>
+        <v>932593</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -41531,19 +41553,20 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>44256</v>
+        <v>44440</v>
       </c>
       <c r="E9" s="1">
-        <v>16452</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B9,Filter!$E$9:$E$321,$C9)</f>
+        <v>1075670</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -41582,36 +41605,38 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>44287</v>
+        <v>44531</v>
       </c>
       <c r="E12" s="1">
-        <v>191293</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B12,Filter!$E$9:$E$321,$C12)</f>
+        <v>1468197</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="E13" s="1">
-        <v>36125</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B13,Filter!$E$9:$E$321,$C13)</f>
+        <v>1120742</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -41837,27 +41862,28 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
         <v>44197</v>
       </c>
       <c r="E27" s="1">
-        <v>193122</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B27,Filter!$E$9:$E$321,$C27)</f>
+        <v>1113296</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -41866,92 +41892,98 @@
         <v>44409</v>
       </c>
       <c r="E28" s="1">
-        <v>149617</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B28,Filter!$E$9:$E$321,$C28)</f>
+        <v>628367</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="E29" s="1">
-        <v>93656</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B29,Filter!$E$9:$E$321,$C29)</f>
+        <v>302219</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="E30" s="1">
-        <v>60921</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B30,Filter!$E$9:$E$321,$C30)</f>
+        <v>463293</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="E31" s="1">
-        <v>180969</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B31,Filter!$E$9:$E$321,$C31)</f>
+        <v>556746</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="E32" s="1">
-        <v>166490</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B32,Filter!$E$9:$E$321,$C32)</f>
+        <v>3284593</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="E33" s="1">
-        <v>12909</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B33,Filter!$E$9:$E$321,$C33)</f>
+        <v>2623153</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42007,53 +42039,56 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2">
-        <v>44531</v>
+        <v>44256</v>
       </c>
       <c r="E37" s="1">
-        <v>82089</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B37,Filter!$E$9:$E$321,$C37)</f>
+        <v>2229502</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2">
-        <v>44440</v>
+        <v>44287</v>
       </c>
       <c r="E38" s="1">
-        <v>242254</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B38,Filter!$E$9:$E$321,$C38)</f>
+        <v>3990872</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>44378</v>
+        <v>44197</v>
       </c>
       <c r="E39" s="1">
-        <v>57399</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B39,Filter!$E$9:$E$321,$C39)</f>
+        <v>2849951</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42092,19 +42127,20 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2">
-        <v>44531</v>
+        <v>44197</v>
       </c>
       <c r="E42" s="1">
-        <v>142874</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B42,Filter!$E$9:$E$321,$C42)</f>
+        <v>1136731</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42143,19 +42179,20 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="E45" s="1">
-        <v>86220</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B45,Filter!$E$9:$E$321,$C45)</f>
+        <v>673865</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42194,19 +42231,20 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="E48" s="1">
-        <v>17711</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B48,Filter!$E$9:$E$321,$C48)</f>
+        <v>1236165</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42228,19 +42266,20 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2">
-        <v>44256</v>
+        <v>44378</v>
       </c>
       <c r="E50" s="1">
-        <v>87460</v>
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B50,Filter!$E$9:$E$321,$C50)</f>
+        <v>1783748</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42925,36 +42964,38 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2">
         <v>44531</v>
       </c>
-      <c r="E91">
-        <v>198140</v>
+      <c r="E91" s="1">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B91,Filter!$E$9:$E$321,$C91)</f>
+        <v>1086586</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2">
         <v>44409</v>
       </c>
-      <c r="E92">
-        <v>99343</v>
+      <c r="E92" s="1">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B92,Filter!$E$9:$E$321,$C92)</f>
+        <v>1592984</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -42993,19 +43034,20 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D95" s="2">
-        <v>44197</v>
-      </c>
-      <c r="E95">
-        <v>8675</v>
+        <v>44531</v>
+      </c>
+      <c r="E95" s="1">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B95,Filter!$E$9:$E$321,$C95)</f>
+        <v>356199</v>
       </c>
     </row>
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -43027,19 +43069,20 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2">
-        <v>44531</v>
-      </c>
-      <c r="E97">
-        <v>130275</v>
+        <v>44409</v>
+      </c>
+      <c r="E97" s="1">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B97,Filter!$E$9:$E$321,$C97)</f>
+        <v>583567</v>
       </c>
     </row>
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -43061,19 +43104,20 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2">
-        <v>44256</v>
-      </c>
-      <c r="E99">
-        <v>126174</v>
+        <v>44197</v>
+      </c>
+      <c r="E99" s="1">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B99,Filter!$E$9:$E$321,$C99)</f>
+        <v>1535574</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -43106,8 +43150,9 @@
       <c r="D101" s="2">
         <v>44256</v>
       </c>
-      <c r="E101">
-        <v>48808</v>
+      <c r="E101" s="1">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,$B101,Filter!$E$9:$E$321,$C101)</f>
+        <v>722542</v>
       </c>
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -46800,7 +46845,2648 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E101">
+    <sortCondition ref="B6:B101"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98146FFB-A271-4653-BED5-2E37AB997398}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B3:D316"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M318" sqref="M318"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B4,Filter!$E$9:$E$321,Sheet1!$C4)</f>
+        <v>1536405</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B5,Filter!$E$9:$E$321,Sheet1!$C5)</f>
+        <v>932593</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B7,Filter!$E$9:$E$321,Sheet1!$C7)</f>
+        <v>1075670</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B10,Filter!$E$9:$E$321,Sheet1!$C10)</f>
+        <v>1468197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B11,Filter!$E$9:$E$321,Sheet1!$C11)</f>
+        <v>1120742</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B25,Filter!$E$9:$E$321,Sheet1!$C25)</f>
+        <v>1113296</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B26,Filter!$E$9:$E$321,Sheet1!$C26)</f>
+        <v>628367</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B27,Filter!$E$9:$E$321,Sheet1!$C27)</f>
+        <v>302219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B28,Filter!$E$9:$E$321,Sheet1!$C28)</f>
+        <v>463293</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B29,Filter!$E$9:$E$321,Sheet1!$C29)</f>
+        <v>556746</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B30,Filter!$E$9:$E$321,Sheet1!$C30)</f>
+        <v>3284593</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B31,Filter!$E$9:$E$321,Sheet1!$C31)</f>
+        <v>2623153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B35,Filter!$E$9:$E$321,Sheet1!$C35)</f>
+        <v>2229502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B36,Filter!$E$9:$E$321,Sheet1!$C36)</f>
+        <v>3990872</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B37,Filter!$E$9:$E$321,Sheet1!$C37)</f>
+        <v>2849951</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B40,Filter!$E$9:$E$321,Sheet1!$C40)</f>
+        <v>1136731</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B43,Filter!$E$9:$E$321,Sheet1!$C43)</f>
+        <v>673865</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B46,Filter!$E$9:$E$321,Sheet1!$C46)</f>
+        <v>1236165</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B48,Filter!$E$9:$E$321,Sheet1!$C48)</f>
+        <v>1783748</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B89,Filter!$E$9:$E$321,Sheet1!$C89)</f>
+        <v>1086586</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B90,Filter!$E$9:$E$321,Sheet1!$C90)</f>
+        <v>1592984</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B93,Filter!$E$9:$E$321,Sheet1!$C93)</f>
+        <v>356199</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B95,Filter!$E$9:$E$321,Sheet1!$C95)</f>
+        <v>583567</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B97,Filter!$E$9:$E$321,Sheet1!$C97)</f>
+        <v>1535574</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <f>SUMIFS(Filter!$G$9:$G$321,Filter!$D$9:$D$321,Sheet1!$B99,Filter!$E$9:$E$321,Sheet1!$C99)</f>
+        <v>722542</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C99">
+    <sortCondition ref="B4:B99"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>